--- a/Информация о проходах/Курсова Полина Анатольевна.xlsx
+++ b/Информация о проходах/Курсова Полина Анатольевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 07:57:34</t>
+          <t>2024-05-20 09:04:37</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 19:20:45</t>
+          <t>2024-05-20 17:57:32</t>
         </is>
       </c>
     </row>
@@ -512,6 +512,646 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-21 09:01:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-21 13:14:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-22 08:57:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:58:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-23 08:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-23 17:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-24 09:00:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-24 17:58:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-25 07:47:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-25 16:50:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-27 09:00:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-27 17:59:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-28 13:50:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-28 17:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-29 08:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-29 17:58:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-31 08:58:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-31 17:56:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-06-03 07:57:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-06-03 19:20:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>2024-06-04 13:49:33</t>
         </is>

--- a/Информация о проходах/Курсова Полина Анатольевна.xlsx
+++ b/Информация о проходах/Курсова Полина Анатольевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-20 09:04:37</t>
+          <t>2024-06-03 07:57:34</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-20 17:57:32</t>
+          <t>2024-06-03 19:20:45</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-21 09:01:56</t>
+          <t>2024-06-04 13:49:33</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-21 13:14:28</t>
+          <t>2024-06-04 18:00:57</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-22 08:57:41</t>
+          <t>2024-06-05 07:46:34</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-22 17:58:53</t>
+          <t>2024-06-05 19:05:50</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-23 08:45:39</t>
+          <t>2024-06-06 09:01:04</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-23 17:57:00</t>
+          <t>2024-06-06 18:18:30</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-24 09:00:59</t>
+          <t>2024-06-07 08:37:06</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-24 17:58:22</t>
+          <t>2024-06-07 18:00:29</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-25 07:47:06</t>
+          <t>2024-06-10 08:46:50</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-25 16:50:29</t>
+          <t>2024-06-10 19:25:02</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-27 09:00:37</t>
+          <t>2024-06-11 08:36:51</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-27 17:59:13</t>
+          <t>2024-06-11 17:47:40</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-28 13:50:00</t>
+          <t>2024-06-13 08:35:15</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-28 17:58:12</t>
+          <t>2024-06-13 18:00:44</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-29 08:57:01</t>
+          <t>2024-06-14 07:51:22</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-29 17:58:16</t>
+          <t>2024-06-14 18:01:31</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-31 08:58:47</t>
+          <t>2024-06-21 08:55:41</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-31 17:56:32</t>
+          <t>2024-06-21 17:56:42</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-06-03 07:57:34</t>
+          <t>2024-06-24 08:59:57</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-06-03 19:20:45</t>
+          <t>2024-06-24 17:58:45</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,423 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-06-04 13:49:33</t>
+          <t>2024-06-25 08:57:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-06-25 17:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-06-26 08:56:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-06-26 11:51:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-06-26 11:52:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-06-26 17:58:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-06-27 08:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-06-27 17:57:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-06-28 08:58:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-06-28 17:58:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-07-01 08:38:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-07-01 17:57:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-07-02 08:49:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Курсова Полина Анатольевна</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Старший химик отдела РНЛП</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Отдел РНЛП</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-07-02 17:56:54</t>
         </is>
       </c>
     </row>
